--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c939c313c20f61/Documents/CS Projects/cabin-prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56c939c313c20f61/Documents/CS Projects/cabin-prediction/prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_5ABC4A817ABB8BF932C86FDF90EF682B28B38519" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68F9B7D5-A1EB-4BD8-81AD-84745F5C358B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="113_{5C412592-71EF-4072-9136-F0A3AFE29C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
